--- a/Data/BL(anal-tm-comp-order){plan}.xlsx
+++ b/Data/BL(anal-tm-comp-order){plan}.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Projects/Work/PDI/scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Projects/Work/PDI/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E3472D-0573-CC41-B65B-137A3388361A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6CF05-0E26-DE4F-9A52-996B09DC9D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BulkSpecCLEAN" sheetId="3" r:id="rId1"/>
@@ -1266,7 +1266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1463,11 +1463,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1528,6 +1600,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1564,6 +1653,7 @@
       <sheetName val="Exceptions"/>
       <sheetName val="PRODUCT"/>
       <sheetName val="RMspecsChem"/>
+      <sheetName val="AllFGspecs"/>
       <sheetName val="FGspecs"/>
       <sheetName val="RM_Product specs (Chem)"/>
     </sheetNames>
@@ -1572,8 +1662,9 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1881,15 +1972,16 @@
   </sheetPr>
   <dimension ref="A1:K839"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="24" customWidth="1"/>
     <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -5499,7 +5591,7 @@
       <c r="B1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -5534,7 +5626,7 @@
       <c r="B2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="24" t="s">
         <v>245</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -5560,7 +5652,7 @@
       <c r="B3" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="24" t="s">
         <v>246</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -5583,7 +5675,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="24" t="s">
         <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -5606,7 +5698,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="24" t="s">
         <v>247</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -5629,7 +5721,7 @@
       <c r="B6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="24" t="s">
         <v>248</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -5652,7 +5744,7 @@
       <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="24" t="s">
         <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -5675,7 +5767,7 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="25" t="s">
         <v>247</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5699,7 +5791,7 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -5723,7 +5815,7 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -5746,7 +5838,7 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -5769,7 +5861,7 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -5792,7 +5884,7 @@
       <c r="B13" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="25" t="s">
         <v>294</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -5824,7 +5916,7 @@
       <c r="B14" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="25" t="s">
         <v>295</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -5856,7 +5948,7 @@
       <c r="B15" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="25" t="s">
         <v>295</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5888,7 +5980,7 @@
       <c r="B16" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="25" t="s">
         <v>295</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -5920,7 +6012,7 @@
       <c r="B17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="25" t="s">
         <v>295</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -5947,7 +6039,7 @@
       <c r="B18" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="25" t="s">
         <v>296</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -5979,7 +6071,7 @@
       <c r="B19" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="25" t="s">
         <v>296</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -6011,7 +6103,7 @@
       <c r="B20" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="25" t="s">
         <v>296</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -6043,7 +6135,7 @@
       <c r="B21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -6075,7 +6167,7 @@
       <c r="B22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -6107,7 +6199,7 @@
       <c r="B23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -6139,7 +6231,7 @@
       <c r="B24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -6171,7 +6263,7 @@
       <c r="B25" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -6203,7 +6295,7 @@
       <c r="B26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -6235,7 +6327,7 @@
       <c r="B27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -6267,7 +6359,7 @@
       <c r="B28" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -6299,7 +6391,7 @@
       <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -6331,7 +6423,7 @@
       <c r="B30" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="24" t="s">
         <v>223</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -6363,7 +6455,7 @@
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -6395,7 +6487,7 @@
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -6427,7 +6519,7 @@
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="24" t="s">
         <v>224</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -6459,7 +6551,7 @@
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="24" t="s">
         <v>224</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -6491,7 +6583,7 @@
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="24" t="s">
         <v>224</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -6523,7 +6615,7 @@
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6555,7 +6647,7 @@
       <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="25" t="s">
         <v>224</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -6587,7 +6679,7 @@
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="24" t="s">
         <v>224</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -6619,7 +6711,7 @@
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="24" t="s">
         <v>224</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -6651,7 +6743,7 @@
       <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="24" t="s">
         <v>224</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -6683,7 +6775,7 @@
       <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -6715,7 +6807,7 @@
       <c r="B42" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -6747,7 +6839,7 @@
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -6779,7 +6871,7 @@
       <c r="B44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -6811,7 +6903,7 @@
       <c r="B45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -6843,7 +6935,7 @@
       <c r="B46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -6875,7 +6967,7 @@
       <c r="B47" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -6907,7 +6999,7 @@
       <c r="B48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -6939,7 +7031,7 @@
       <c r="B49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -6971,7 +7063,7 @@
       <c r="B50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -7003,7 +7095,7 @@
       <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -7035,7 +7127,7 @@
       <c r="B52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -7067,7 +7159,7 @@
       <c r="B53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7099,7 +7191,7 @@
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -7131,7 +7223,7 @@
       <c r="B55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -7163,7 +7255,7 @@
       <c r="B56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -7195,7 +7287,7 @@
       <c r="B57" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -7227,7 +7319,7 @@
       <c r="B58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -7259,7 +7351,7 @@
       <c r="B59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -7291,7 +7383,7 @@
       <c r="B60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -7323,7 +7415,7 @@
       <c r="B61" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -7355,7 +7447,7 @@
       <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -7387,7 +7479,7 @@
       <c r="B63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -7419,7 +7511,7 @@
       <c r="B64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -7451,7 +7543,7 @@
       <c r="B65" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -7483,7 +7575,7 @@
       <c r="B66" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D66" s="2" t="s">
@@ -7515,7 +7607,7 @@
       <c r="B67" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -7547,7 +7639,7 @@
       <c r="B68" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -7579,7 +7671,7 @@
       <c r="B69" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -7611,7 +7703,7 @@
       <c r="B70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -7643,7 +7735,7 @@
       <c r="B71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -7675,7 +7767,7 @@
       <c r="B72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -7707,7 +7799,7 @@
       <c r="B73" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -7739,7 +7831,7 @@
       <c r="B74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -7771,7 +7863,7 @@
       <c r="B75" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -7803,7 +7895,7 @@
       <c r="B76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -7835,7 +7927,7 @@
       <c r="B77" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -7867,7 +7959,7 @@
       <c r="B78" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -7899,7 +7991,7 @@
       <c r="B79" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -7931,7 +8023,7 @@
       <c r="B80" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -7963,7 +8055,7 @@
       <c r="B81" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -7995,7 +8087,7 @@
       <c r="B82" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -8027,7 +8119,7 @@
       <c r="B83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -8059,7 +8151,7 @@
       <c r="B84" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -8091,7 +8183,7 @@
       <c r="B85" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -8123,7 +8215,7 @@
       <c r="B86" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -8155,7 +8247,7 @@
       <c r="B87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -8187,7 +8279,7 @@
       <c r="B88" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -8219,7 +8311,7 @@
       <c r="B89" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -8251,7 +8343,7 @@
       <c r="B90" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -8283,7 +8375,7 @@
       <c r="B91" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -8315,7 +8407,7 @@
       <c r="B92" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -8347,7 +8439,7 @@
       <c r="B93" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -8379,7 +8471,7 @@
       <c r="B94" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -8411,7 +8503,7 @@
       <c r="B95" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -8443,7 +8535,7 @@
       <c r="B96" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -8475,7 +8567,7 @@
       <c r="B97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -8507,7 +8599,7 @@
       <c r="B98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -8539,7 +8631,7 @@
       <c r="B99" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -8571,7 +8663,7 @@
       <c r="B100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -8603,7 +8695,7 @@
       <c r="B101" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -8635,7 +8727,7 @@
       <c r="B102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -8667,7 +8759,7 @@
       <c r="B103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -8699,7 +8791,7 @@
       <c r="B104" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -8731,7 +8823,7 @@
       <c r="B105" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -8763,7 +8855,7 @@
       <c r="B106" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -8795,7 +8887,7 @@
       <c r="B107" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -8827,7 +8919,7 @@
       <c r="B108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -8859,7 +8951,7 @@
       <c r="B109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -8891,7 +8983,7 @@
       <c r="B110" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -8923,7 +9015,7 @@
       <c r="B111" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -8955,7 +9047,7 @@
       <c r="B112" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -8987,7 +9079,7 @@
       <c r="B113" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -9019,7 +9111,7 @@
       <c r="B114" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -9051,7 +9143,7 @@
       <c r="B115" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -9083,7 +9175,7 @@
       <c r="B116" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -9115,7 +9207,7 @@
       <c r="B117" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -9147,7 +9239,7 @@
       <c r="B118" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -9179,7 +9271,7 @@
       <c r="B119" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -9211,7 +9303,7 @@
       <c r="B120" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -9243,7 +9335,7 @@
       <c r="B121" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="24" t="s">
         <v>114</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -9275,7 +9367,7 @@
       <c r="B122" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="24" t="s">
         <v>114</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -9307,7 +9399,7 @@
       <c r="B123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="24" t="s">
         <v>114</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -9339,7 +9431,7 @@
       <c r="B124" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="24" t="s">
         <v>114</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -9371,7 +9463,7 @@
       <c r="B125" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -9403,7 +9495,7 @@
       <c r="B126" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -9435,7 +9527,7 @@
       <c r="B127" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D127" s="2" t="s">
@@ -9464,7 +9556,7 @@
       <c r="B128" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D128" s="2" t="s">
@@ -9496,7 +9588,7 @@
       <c r="B129" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D129" s="2" t="s">
@@ -9528,7 +9620,7 @@
       <c r="B130" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D130" s="2" t="s">
@@ -9560,7 +9652,7 @@
       <c r="B131" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D131" s="2" t="s">
@@ -9592,7 +9684,7 @@
       <c r="B132" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D132" s="2" t="s">
@@ -9624,7 +9716,7 @@
       <c r="B133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D133" s="2" t="s">
@@ -9656,7 +9748,7 @@
       <c r="B134" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D134" s="2" t="s">
@@ -9688,7 +9780,7 @@
       <c r="B135" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D135" s="2" t="s">
@@ -9720,7 +9812,7 @@
       <c r="B136" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D136" s="2" t="s">
@@ -9752,7 +9844,7 @@
       <c r="B137" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D137" s="2" t="s">
@@ -9784,7 +9876,7 @@
       <c r="B138" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D138" s="2" t="s">
@@ -9816,7 +9908,7 @@
       <c r="B139" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -9848,7 +9940,7 @@
       <c r="B140" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D140" s="2" t="s">
@@ -9880,7 +9972,7 @@
       <c r="B141" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D141" s="2" t="s">
@@ -9912,7 +10004,7 @@
       <c r="B142" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D142" s="2" t="s">
@@ -9944,7 +10036,7 @@
       <c r="B143" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -9976,7 +10068,7 @@
       <c r="B144" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D144" s="2" t="s">
@@ -10008,7 +10100,7 @@
       <c r="B145" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D145" s="2" t="s">
@@ -10040,7 +10132,7 @@
       <c r="B146" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
@@ -10072,7 +10164,7 @@
       <c r="B147" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D147" s="2" t="s">
@@ -10104,7 +10196,7 @@
       <c r="B148" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D148" s="2" t="s">
@@ -10136,7 +10228,7 @@
       <c r="B149" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D149" s="2" t="s">
@@ -10168,7 +10260,7 @@
       <c r="B150" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D150" s="2" t="s">
@@ -10200,7 +10292,7 @@
       <c r="B151" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D151" s="2" t="s">
@@ -10232,7 +10324,7 @@
       <c r="B152" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D152" s="2" t="s">
@@ -10264,7 +10356,7 @@
       <c r="B153" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D153" s="2" t="s">
@@ -10296,7 +10388,7 @@
       <c r="B154" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D154" s="2" t="s">
@@ -10328,7 +10420,7 @@
       <c r="B155" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -10360,7 +10452,7 @@
       <c r="B156" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -10392,7 +10484,7 @@
       <c r="B157" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -10424,7 +10516,7 @@
       <c r="B158" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -10456,7 +10548,7 @@
       <c r="B159" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -10488,7 +10580,7 @@
       <c r="B160" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -10520,7 +10612,7 @@
       <c r="B161" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -10552,7 +10644,7 @@
       <c r="B162" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -10584,7 +10676,7 @@
       <c r="B163" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -10616,7 +10708,7 @@
       <c r="B164" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -10648,7 +10740,7 @@
       <c r="B165" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -10680,7 +10772,7 @@
       <c r="B166" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -10712,7 +10804,7 @@
       <c r="B167" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -10744,7 +10836,7 @@
       <c r="B168" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C168" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -10776,7 +10868,7 @@
       <c r="B169" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -10808,7 +10900,7 @@
       <c r="B170" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -10840,7 +10932,7 @@
       <c r="B171" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -10872,7 +10964,7 @@
       <c r="B172" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -10904,7 +10996,7 @@
       <c r="B173" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -10936,7 +11028,7 @@
       <c r="B174" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -10968,7 +11060,7 @@
       <c r="B175" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -11000,7 +11092,7 @@
       <c r="B176" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -11032,7 +11124,7 @@
       <c r="B177" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -11064,7 +11156,7 @@
       <c r="B178" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -11096,7 +11188,7 @@
       <c r="B179" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -11128,7 +11220,7 @@
       <c r="B180" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -11160,7 +11252,7 @@
       <c r="B181" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -11183,7 +11275,7 @@
       <c r="B182" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -11206,7 +11298,7 @@
       <c r="B183" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" s="24" t="s">
         <v>34</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -11229,7 +11321,7 @@
       <c r="B184" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -11261,7 +11353,7 @@
       <c r="B185" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D185" s="2" t="s">
@@ -11285,7 +11377,7 @@
       <c r="B186" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -11309,7 +11401,7 @@
       <c r="B187" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -11333,7 +11425,7 @@
       <c r="B188" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -11357,7 +11449,7 @@
       <c r="B189" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -11381,7 +11473,7 @@
       <c r="B190" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -11405,7 +11497,7 @@
       <c r="B191" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -11429,7 +11521,7 @@
       <c r="B192" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -11453,7 +11545,7 @@
       <c r="B193" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -11477,7 +11569,7 @@
       <c r="B194" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D194" s="2" t="s">
@@ -11501,7 +11593,7 @@
       <c r="B195" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -11525,7 +11617,7 @@
       <c r="B196" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -11549,7 +11641,7 @@
       <c r="B197" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -11573,7 +11665,7 @@
       <c r="B198" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D198" s="2" t="s">
@@ -11597,7 +11689,7 @@
       <c r="B199" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -11621,7 +11713,7 @@
       <c r="B200" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D200" s="2" t="s">
@@ -11645,7 +11737,7 @@
       <c r="B201" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -11669,7 +11761,7 @@
       <c r="B202" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -11693,7 +11785,7 @@
       <c r="B203" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -11717,7 +11809,7 @@
       <c r="B204" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -11741,7 +11833,7 @@
       <c r="B205" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -11765,7 +11857,7 @@
       <c r="B206" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -11789,7 +11881,7 @@
       <c r="B207" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -11813,7 +11905,7 @@
       <c r="B208" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -11837,7 +11929,7 @@
       <c r="B209" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -11861,7 +11953,7 @@
       <c r="B210" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -11885,7 +11977,7 @@
       <c r="B211" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -11909,7 +12001,7 @@
       <c r="B212" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -11933,7 +12025,7 @@
       <c r="B213" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -11957,7 +12049,7 @@
       <c r="B214" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -11981,7 +12073,7 @@
       <c r="B215" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -12005,7 +12097,7 @@
       <c r="B216" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -12029,7 +12121,7 @@
       <c r="B217" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -12053,7 +12145,7 @@
       <c r="B218" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -12077,7 +12169,7 @@
       <c r="B219" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -12101,7 +12193,7 @@
       <c r="B220" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -12125,7 +12217,7 @@
       <c r="B221" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -12149,7 +12241,7 @@
       <c r="B222" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -12173,7 +12265,7 @@
       <c r="B223" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -12197,7 +12289,7 @@
       <c r="B224" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D224" s="2" t="s">
@@ -12221,7 +12313,7 @@
       <c r="B225" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D225" s="2" t="s">
@@ -12245,7 +12337,7 @@
       <c r="B226" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D226" s="2" t="s">
@@ -12269,7 +12361,7 @@
       <c r="B227" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D227" s="2" t="s">
@@ -12293,7 +12385,7 @@
       <c r="B228" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D228" s="2" t="s">
@@ -12317,7 +12409,7 @@
       <c r="B229" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D229" s="2" t="s">
@@ -12341,7 +12433,7 @@
       <c r="B230" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D230" s="2" t="s">
@@ -12365,7 +12457,7 @@
       <c r="B231" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D231" s="2" t="s">
@@ -12389,7 +12481,7 @@
       <c r="B232" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D232" s="2" t="s">
@@ -12413,7 +12505,7 @@
       <c r="B233" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D233" s="2" t="s">
@@ -12437,7 +12529,7 @@
       <c r="B234" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D234" s="2" t="s">
@@ -12461,7 +12553,7 @@
       <c r="B235" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -12484,7 +12576,7 @@
       <c r="B236" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="C236" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -12507,7 +12599,7 @@
       <c r="B237" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -12530,7 +12622,7 @@
       <c r="B238" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="C238" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -12553,7 +12645,7 @@
       <c r="B239" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -12576,7 +12668,7 @@
       <c r="B240" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -12599,7 +12691,7 @@
       <c r="B241" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -12622,7 +12714,7 @@
       <c r="B242" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -12645,7 +12737,7 @@
       <c r="B243" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -12668,7 +12760,7 @@
       <c r="B244" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -12691,7 +12783,7 @@
       <c r="B245" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -12714,7 +12806,7 @@
       <c r="B246" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="C246" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -12737,7 +12829,7 @@
       <c r="B247" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -12760,7 +12852,7 @@
       <c r="B248" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -12783,7 +12875,7 @@
       <c r="B249" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -12806,7 +12898,7 @@
       <c r="B250" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="C250" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -12829,7 +12921,7 @@
       <c r="B251" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C251" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -12852,7 +12944,7 @@
       <c r="B252" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C252" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -12875,7 +12967,7 @@
       <c r="B253" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C253" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -12898,7 +12990,7 @@
       <c r="B254" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="C254" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -12921,7 +13013,7 @@
       <c r="B255" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="C255" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -12944,7 +13036,7 @@
       <c r="B256" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="C256" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -12967,7 +13059,7 @@
       <c r="B257" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C257" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D257" s="1" t="s">
@@ -12990,7 +13082,7 @@
       <c r="B258" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C258" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -13013,7 +13105,7 @@
       <c r="B259" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C259" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -13036,7 +13128,7 @@
       <c r="B260" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C260" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D260" s="1" t="s">
@@ -13059,7 +13151,7 @@
       <c r="B261" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C261" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -13082,7 +13174,7 @@
       <c r="B262" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C262" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D262" s="1" t="s">
@@ -13105,7 +13197,7 @@
       <c r="B263" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C263" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -13128,7 +13220,7 @@
       <c r="B264" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C264" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D264" s="1" t="s">
@@ -13151,7 +13243,7 @@
       <c r="B265" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C265" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -13174,7 +13266,7 @@
       <c r="B266" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C266" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D266" s="1" t="s">
@@ -13197,7 +13289,7 @@
       <c r="B267" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="C267" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D267" s="1" t="s">
@@ -13220,7 +13312,7 @@
       <c r="B268" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="C268" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D268" s="1" t="s">
@@ -13243,7 +13335,7 @@
       <c r="B269" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="C269" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D269" s="1" t="s">
@@ -13266,7 +13358,7 @@
       <c r="B270" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="C270" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D270" s="1" t="s">
@@ -13289,7 +13381,7 @@
       <c r="B271" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C271" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D271" s="1" t="s">
@@ -13312,7 +13404,7 @@
       <c r="B272" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="C272" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D272" s="1" t="s">
@@ -13335,7 +13427,7 @@
       <c r="B273" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="C273" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D273" s="1" t="s">
@@ -13358,7 +13450,7 @@
       <c r="B274" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="C274" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D274" s="1" t="s">
@@ -13381,7 +13473,7 @@
       <c r="B275" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="C275" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -13404,7 +13496,7 @@
       <c r="B276" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="C276" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D276" s="1" t="s">
@@ -13427,7 +13519,7 @@
       <c r="B277" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="C277" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D277" s="1" t="s">
@@ -13450,7 +13542,7 @@
       <c r="B278" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="C278" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D278" s="1" t="s">
@@ -13473,7 +13565,7 @@
       <c r="B279" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C279" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D279" s="1" t="s">
@@ -13496,7 +13588,7 @@
       <c r="B280" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="C280" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D280" s="1" t="s">
@@ -13519,7 +13611,7 @@
       <c r="B281" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="C281" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D281" s="1" t="s">
@@ -13542,7 +13634,7 @@
       <c r="B282" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="C282" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D282" s="1" t="s">
@@ -13565,7 +13657,7 @@
       <c r="B283" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="C283" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D283" s="1" t="s">
@@ -13588,7 +13680,7 @@
       <c r="B284" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D284" s="2" t="s">
@@ -13612,7 +13704,7 @@
       <c r="B285" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D285" s="2" t="s">
@@ -13636,7 +13728,7 @@
       <c r="B286" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="C286" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -13659,7 +13751,7 @@
       <c r="B287" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C287" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D287" s="2" t="s">
@@ -13683,7 +13775,7 @@
       <c r="B288" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D288" s="2" t="s">
@@ -13707,7 +13799,7 @@
       <c r="B289" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C289" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D289" s="2" t="s">
@@ -13731,7 +13823,7 @@
       <c r="B290" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C290" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D290" s="2" t="s">
@@ -13755,7 +13847,7 @@
       <c r="B291" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C291" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D291" s="2" t="s">
@@ -13779,7 +13871,7 @@
       <c r="B292" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D292" s="2" t="s">
@@ -13803,7 +13895,7 @@
       <c r="B293" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C293" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D293" s="2" t="s">
@@ -13827,7 +13919,7 @@
       <c r="B294" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C294" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D294" s="2" t="s">
@@ -13851,7 +13943,7 @@
       <c r="B295" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C295" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D295" s="2" t="s">
@@ -13875,7 +13967,7 @@
       <c r="B296" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C296" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D296" s="2" t="s">
@@ -13899,7 +13991,7 @@
       <c r="B297" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C297" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D297" s="2" t="s">
@@ -13923,7 +14015,7 @@
       <c r="B298" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C298" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D298" s="2" t="s">
@@ -13947,7 +14039,7 @@
       <c r="B299" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C299" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D299" s="2" t="s">
@@ -13971,7 +14063,7 @@
       <c r="B300" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C300" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D300" s="2" t="s">
@@ -13995,7 +14087,7 @@
       <c r="B301" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C301" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D301" s="2" t="s">
@@ -14019,7 +14111,7 @@
       <c r="B302" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C302" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D302" s="2" t="s">
@@ -14043,7 +14135,7 @@
       <c r="B303" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C303" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D303" s="2" t="s">
@@ -14067,7 +14159,7 @@
       <c r="B304" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C304" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D304" s="2" t="s">
@@ -14091,7 +14183,7 @@
       <c r="B305" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C305" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D305" s="2" t="s">
@@ -14115,7 +14207,7 @@
       <c r="B306" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C306" s="2" t="s">
+      <c r="C306" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D306" s="2" t="s">
@@ -14139,7 +14231,7 @@
       <c r="B307" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C307" s="2" t="s">
+      <c r="C307" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D307" s="2" t="s">
@@ -14163,7 +14255,7 @@
       <c r="B308" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C308" s="2" t="s">
+      <c r="C308" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D308" s="2" t="s">
@@ -14187,7 +14279,7 @@
       <c r="B309" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C309" s="2" t="s">
+      <c r="C309" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D309" s="2" t="s">
@@ -14211,7 +14303,7 @@
       <c r="B310" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C310" s="2" t="s">
+      <c r="C310" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D310" s="2" t="s">
@@ -14235,7 +14327,7 @@
       <c r="B311" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="C311" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D311" s="2" t="s">
@@ -14259,7 +14351,7 @@
       <c r="B312" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="C312" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D312" s="2" t="s">
@@ -14283,7 +14375,7 @@
       <c r="B313" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C313" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D313" s="2" t="s">
@@ -14307,7 +14399,7 @@
       <c r="B314" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="C314" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D314" s="2" t="s">
@@ -14331,7 +14423,7 @@
       <c r="B315" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C315" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D315" s="2" t="s">
@@ -14355,7 +14447,7 @@
       <c r="B316" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C316" s="2" t="s">
+      <c r="C316" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D316" s="2" t="s">
@@ -14379,7 +14471,7 @@
       <c r="B317" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C317" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D317" s="2" t="s">
@@ -14403,7 +14495,7 @@
       <c r="B318" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C318" s="2" t="s">
+      <c r="C318" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D318" s="2" t="s">
@@ -14427,7 +14519,7 @@
       <c r="B319" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C319" s="2" t="s">
+      <c r="C319" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D319" s="2" t="s">
@@ -14451,7 +14543,7 @@
       <c r="B320" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C320" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D320" s="2" t="s">
@@ -14475,7 +14567,7 @@
       <c r="B321" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C321" s="2" t="s">
+      <c r="C321" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D321" s="2" t="s">
@@ -14499,7 +14591,7 @@
       <c r="B322" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C322" s="2" t="s">
+      <c r="C322" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D322" s="2" t="s">
@@ -14523,7 +14615,7 @@
       <c r="B323" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C323" s="2" t="s">
+      <c r="C323" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D323" s="2" t="s">
@@ -14547,7 +14639,7 @@
       <c r="B324" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C324" s="2" t="s">
+      <c r="C324" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D324" s="2" t="s">
@@ -14571,7 +14663,7 @@
       <c r="B325" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C325" s="2" t="s">
+      <c r="C325" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D325" s="2" t="s">
@@ -14595,7 +14687,7 @@
       <c r="B326" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C326" s="2" t="s">
+      <c r="C326" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D326" s="2" t="s">
@@ -14619,7 +14711,7 @@
       <c r="B327" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C327" s="2" t="s">
+      <c r="C327" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D327" s="2" t="s">
@@ -14643,7 +14735,7 @@
       <c r="B328" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C328" s="2" t="s">
+      <c r="C328" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D328" s="2" t="s">
@@ -14667,7 +14759,7 @@
       <c r="B329" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C329" s="2" t="s">
+      <c r="C329" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D329" s="2" t="s">
@@ -14691,7 +14783,7 @@
       <c r="B330" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C330" s="2" t="s">
+      <c r="C330" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D330" s="2" t="s">
@@ -14715,7 +14807,7 @@
       <c r="B331" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C331" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D331" s="2" t="s">
@@ -14739,7 +14831,7 @@
       <c r="B332" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C332" s="2" t="s">
+      <c r="C332" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D332" s="2" t="s">
@@ -14763,7 +14855,7 @@
       <c r="B333" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C333" s="2" t="s">
+      <c r="C333" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D333" s="2" t="s">
@@ -14787,7 +14879,7 @@
       <c r="B334" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C334" s="2" t="s">
+      <c r="C334" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D334" s="2" t="s">
@@ -14811,7 +14903,7 @@
       <c r="B335" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C335" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D335" s="2" t="s">
@@ -14835,7 +14927,7 @@
       <c r="B336" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C336" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D336" s="1" t="s">
@@ -14858,7 +14950,7 @@
       <c r="B337" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="C337" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D337" s="1" t="s">
@@ -14881,7 +14973,7 @@
       <c r="B338" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="C338" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D338" s="1" t="s">
@@ -14904,7 +14996,7 @@
       <c r="B339" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C339" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D339" s="1" t="s">
@@ -14927,7 +15019,7 @@
       <c r="B340" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C340" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D340" s="1" t="s">
@@ -14950,7 +15042,7 @@
       <c r="B341" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="C341" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D341" s="1" t="s">
@@ -14973,7 +15065,7 @@
       <c r="B342" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="C342" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D342" s="1" t="s">
@@ -14996,7 +15088,7 @@
       <c r="B343" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="C343" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D343" s="1" t="s">
@@ -15019,7 +15111,7 @@
       <c r="B344" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="C344" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D344" s="1" t="s">
@@ -15042,7 +15134,7 @@
       <c r="B345" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="C345" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D345" s="1" t="s">
@@ -15065,7 +15157,7 @@
       <c r="B346" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C346" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D346" s="1" t="s">
@@ -15088,7 +15180,7 @@
       <c r="B347" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="C347" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D347" s="1" t="s">
@@ -15111,7 +15203,7 @@
       <c r="B348" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="C348" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D348" s="1" t="s">
@@ -15134,7 +15226,7 @@
       <c r="B349" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="C349" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D349" s="1" t="s">
@@ -15157,7 +15249,7 @@
       <c r="B350" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D350" s="1" t="s">
@@ -15180,7 +15272,7 @@
       <c r="B351" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="C351" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D351" s="1" t="s">
@@ -15203,7 +15295,7 @@
       <c r="B352" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="C352" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D352" s="1" t="s">
@@ -15226,7 +15318,7 @@
       <c r="B353" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="C353" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D353" s="1" t="s">
@@ -15249,7 +15341,7 @@
       <c r="B354" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="C354" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D354" s="1" t="s">
@@ -15272,7 +15364,7 @@
       <c r="B355" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="C355" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D355" s="1" t="s">
@@ -15295,7 +15387,7 @@
       <c r="B356" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="C356" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D356" s="1" t="s">
@@ -15318,7 +15410,7 @@
       <c r="B357" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="C357" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D357" s="1" t="s">
@@ -15341,7 +15433,7 @@
       <c r="B358" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="C358" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D358" s="1" t="s">
@@ -15364,7 +15456,7 @@
       <c r="B359" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="C359" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D359" s="1" t="s">
@@ -15387,7 +15479,7 @@
       <c r="B360" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="C360" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D360" s="1" t="s">
@@ -15410,7 +15502,7 @@
       <c r="B361" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="C361" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D361" s="1" t="s">
@@ -15433,7 +15525,7 @@
       <c r="B362" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="C362" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D362" s="1" t="s">
@@ -15456,7 +15548,7 @@
       <c r="B363" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="C363" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D363" s="1" t="s">
@@ -15479,7 +15571,7 @@
       <c r="B364" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="C364" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D364" s="1" t="s">
@@ -15502,7 +15594,7 @@
       <c r="B365" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="C365" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D365" s="1" t="s">
@@ -15525,7 +15617,7 @@
       <c r="B366" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="C366" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D366" s="1" t="s">
@@ -15548,7 +15640,7 @@
       <c r="B367" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="C367" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D367" s="1" t="s">
@@ -15571,7 +15663,7 @@
       <c r="B368" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="C368" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D368" s="1" t="s">
@@ -15594,7 +15686,7 @@
       <c r="B369" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="C369" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D369" s="1" t="s">
@@ -15617,7 +15709,7 @@
       <c r="B370" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="C370" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D370" s="1" t="s">
@@ -15640,7 +15732,7 @@
       <c r="B371" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="C371" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D371" s="1" t="s">
@@ -15663,7 +15755,7 @@
       <c r="B372" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="C372" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D372" s="1" t="s">
@@ -15686,7 +15778,7 @@
       <c r="B373" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="C373" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D373" s="1" t="s">
@@ -15709,7 +15801,7 @@
       <c r="B374" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="C374" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D374" s="1" t="s">
@@ -15732,7 +15824,7 @@
       <c r="B375" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C375" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D375" s="1" t="s">
@@ -15755,7 +15847,7 @@
       <c r="B376" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="C376" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D376" s="1" t="s">
@@ -15778,7 +15870,7 @@
       <c r="B377" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="C377" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D377" s="1" t="s">
@@ -15801,7 +15893,7 @@
       <c r="B378" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="C378" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D378" s="1" t="s">
@@ -15824,7 +15916,7 @@
       <c r="B379" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="C379" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D379" s="1" t="s">
@@ -15847,7 +15939,7 @@
       <c r="B380" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="C380" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D380" s="1" t="s">
@@ -15870,7 +15962,7 @@
       <c r="B381" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="C381" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D381" s="1" t="s">
@@ -15893,7 +15985,7 @@
       <c r="B382" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C382" s="1" t="s">
+      <c r="C382" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D382" s="1" t="s">
@@ -15916,7 +16008,7 @@
       <c r="B383" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="C383" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D383" s="1" t="s">
@@ -15939,7 +16031,7 @@
       <c r="B384" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C384" s="1" t="s">
+      <c r="C384" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D384" s="1" t="s">
@@ -15962,7 +16054,7 @@
       <c r="B385" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C385" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D385" s="1" t="s">
@@ -15985,7 +16077,7 @@
       <c r="B386" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="C386" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D386" s="2" t="s">
@@ -16009,7 +16101,7 @@
       <c r="B387" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="C387" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D387" s="2" t="s">
@@ -16033,7 +16125,7 @@
       <c r="B388" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="C388" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D388" s="2" t="s">
@@ -16057,7 +16149,7 @@
       <c r="B389" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C389" s="2" t="s">
+      <c r="C389" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D389" s="2" t="s">
@@ -16081,7 +16173,7 @@
       <c r="B390" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C390" s="2" t="s">
+      <c r="C390" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D390" s="2" t="s">
@@ -16105,7 +16197,7 @@
       <c r="B391" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C391" s="2" t="s">
+      <c r="C391" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D391" s="2" t="s">
@@ -16129,7 +16221,7 @@
       <c r="B392" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C392" s="2" t="s">
+      <c r="C392" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D392" s="2" t="s">
@@ -16153,7 +16245,7 @@
       <c r="B393" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C393" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D393" s="2" t="s">
@@ -16177,7 +16269,7 @@
       <c r="B394" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C394" s="2" t="s">
+      <c r="C394" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D394" s="2" t="s">
@@ -16201,7 +16293,7 @@
       <c r="B395" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C395" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D395" s="2" t="s">
@@ -16225,7 +16317,7 @@
       <c r="B396" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C396" s="2" t="s">
+      <c r="C396" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D396" s="2" t="s">
@@ -16249,7 +16341,7 @@
       <c r="B397" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C397" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D397" s="2" t="s">
@@ -16273,7 +16365,7 @@
       <c r="B398" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C398" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D398" s="2" t="s">
@@ -16297,7 +16389,7 @@
       <c r="B399" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C399" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D399" s="2" t="s">
@@ -16321,7 +16413,7 @@
       <c r="B400" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C400" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D400" s="2" t="s">
@@ -16345,7 +16437,7 @@
       <c r="B401" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C401" s="2" t="s">
+      <c r="C401" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D401" s="2" t="s">
@@ -16369,7 +16461,7 @@
       <c r="B402" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C402" s="2" t="s">
+      <c r="C402" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D402" s="2" t="s">
@@ -16393,7 +16485,7 @@
       <c r="B403" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C403" s="2" t="s">
+      <c r="C403" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D403" s="2" t="s">
@@ -16417,7 +16509,7 @@
       <c r="B404" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C404" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D404" s="2" t="s">
@@ -16441,7 +16533,7 @@
       <c r="B405" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C405" s="2" t="s">
+      <c r="C405" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D405" s="2" t="s">
@@ -16465,7 +16557,7 @@
       <c r="B406" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C406" s="2" t="s">
+      <c r="C406" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D406" s="2" t="s">
@@ -16489,7 +16581,7 @@
       <c r="B407" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C407" s="2" t="s">
+      <c r="C407" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D407" s="2" t="s">
@@ -16513,7 +16605,7 @@
       <c r="B408" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C408" s="2" t="s">
+      <c r="C408" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D408" s="2" t="s">
@@ -16537,7 +16629,7 @@
       <c r="B409" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C409" s="2" t="s">
+      <c r="C409" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D409" s="2" t="s">
@@ -16561,7 +16653,7 @@
       <c r="B410" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C410" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D410" s="2" t="s">
@@ -16585,7 +16677,7 @@
       <c r="B411" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C411" s="2" t="s">
+      <c r="C411" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D411" s="2" t="s">
@@ -16609,7 +16701,7 @@
       <c r="B412" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C412" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D412" s="2" t="s">
@@ -16633,7 +16725,7 @@
       <c r="B413" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C413" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D413" s="2" t="s">
@@ -16657,7 +16749,7 @@
       <c r="B414" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C414" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D414" s="2" t="s">
@@ -16681,7 +16773,7 @@
       <c r="B415" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C415" s="2" t="s">
+      <c r="C415" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D415" s="2" t="s">
@@ -16705,7 +16797,7 @@
       <c r="B416" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="C416" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D416" s="2" t="s">
@@ -16729,7 +16821,7 @@
       <c r="B417" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C417" s="2" t="s">
+      <c r="C417" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D417" s="2" t="s">
@@ -16753,7 +16845,7 @@
       <c r="B418" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C418" s="2" t="s">
+      <c r="C418" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D418" s="2" t="s">
@@ -16777,7 +16869,7 @@
       <c r="B419" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C419" s="2" t="s">
+      <c r="C419" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D419" s="2" t="s">
@@ -16801,7 +16893,7 @@
       <c r="B420" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D420" s="2" t="s">
@@ -16825,7 +16917,7 @@
       <c r="B421" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C421" s="2" t="s">
+      <c r="C421" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D421" s="2" t="s">
@@ -16849,7 +16941,7 @@
       <c r="B422" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C422" s="2" t="s">
+      <c r="C422" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D422" s="2" t="s">
@@ -16873,7 +16965,7 @@
       <c r="B423" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C423" s="2" t="s">
+      <c r="C423" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D423" s="2" t="s">
@@ -16897,7 +16989,7 @@
       <c r="B424" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C424" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D424" s="2" t="s">
@@ -16921,7 +17013,7 @@
       <c r="B425" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C425" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D425" s="2" t="s">
@@ -16945,7 +17037,7 @@
       <c r="B426" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="C426" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D426" s="2" t="s">
@@ -16969,7 +17061,7 @@
       <c r="B427" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C427" s="1" t="s">
+      <c r="C427" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D427" s="1" t="s">
@@ -16992,7 +17084,7 @@
       <c r="B428" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C428" s="1" t="s">
+      <c r="C428" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D428" s="1" t="s">
@@ -17015,7 +17107,7 @@
       <c r="B429" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C429" s="1" t="s">
+      <c r="C429" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D429" s="1" t="s">
@@ -17038,7 +17130,7 @@
       <c r="B430" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="C430" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D430" s="1" t="s">
@@ -17061,7 +17153,7 @@
       <c r="B431" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="C431" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D431" s="1" t="s">
@@ -17084,7 +17176,7 @@
       <c r="B432" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="C432" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D432" s="1" t="s">
@@ -17107,7 +17199,7 @@
       <c r="B433" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C433" s="1" t="s">
+      <c r="C433" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D433" s="1" t="s">
@@ -17130,7 +17222,7 @@
       <c r="B434" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C434" s="1" t="s">
+      <c r="C434" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D434" s="1" t="s">
@@ -17153,7 +17245,7 @@
       <c r="B435" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C435" s="1" t="s">
+      <c r="C435" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D435" s="1" t="s">
@@ -17176,7 +17268,7 @@
       <c r="B436" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C436" s="1" t="s">
+      <c r="C436" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D436" s="1" t="s">
@@ -17199,7 +17291,7 @@
       <c r="B437" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="C437" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D437" s="1" t="s">
@@ -17222,7 +17314,7 @@
       <c r="B438" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="C438" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D438" s="1" t="s">
@@ -17245,7 +17337,7 @@
       <c r="B439" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C439" s="1" t="s">
+      <c r="C439" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D439" s="1" t="s">
@@ -17268,7 +17360,7 @@
       <c r="B440" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C440" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D440" s="1" t="s">
@@ -17291,7 +17383,7 @@
       <c r="B441" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="C441" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D441" s="1" t="s">
@@ -17314,7 +17406,7 @@
       <c r="B442" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C442" s="1" t="s">
+      <c r="C442" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D442" s="1" t="s">
@@ -17337,7 +17429,7 @@
       <c r="B443" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C443" s="1" t="s">
+      <c r="C443" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D443" s="1" t="s">
@@ -17360,7 +17452,7 @@
       <c r="B444" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="C444" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D444" s="1" t="s">
@@ -17383,7 +17475,7 @@
       <c r="B445" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C445" s="1" t="s">
+      <c r="C445" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D445" s="1" t="s">
@@ -17406,7 +17498,7 @@
       <c r="B446" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="C446" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D446" s="1" t="s">
@@ -17429,7 +17521,7 @@
       <c r="B447" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C447" s="1" t="s">
+      <c r="C447" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D447" s="1" t="s">
@@ -17452,7 +17544,7 @@
       <c r="B448" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C448" s="1" t="s">
+      <c r="C448" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D448" s="1" t="s">
@@ -17475,7 +17567,7 @@
       <c r="B449" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C449" s="1" t="s">
+      <c r="C449" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D449" s="1" t="s">
@@ -17498,7 +17590,7 @@
       <c r="B450" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C450" s="1" t="s">
+      <c r="C450" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D450" s="1" t="s">
@@ -17521,7 +17613,7 @@
       <c r="B451" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C451" s="1" t="s">
+      <c r="C451" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D451" s="1" t="s">
@@ -17544,7 +17636,7 @@
       <c r="B452" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C452" s="1" t="s">
+      <c r="C452" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D452" s="1" t="s">
@@ -17567,7 +17659,7 @@
       <c r="B453" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C453" s="1" t="s">
+      <c r="C453" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D453" s="1" t="s">
@@ -17590,7 +17682,7 @@
       <c r="B454" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C454" s="1" t="s">
+      <c r="C454" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D454" s="1" t="s">
@@ -17613,7 +17705,7 @@
       <c r="B455" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C455" s="1" t="s">
+      <c r="C455" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D455" s="1" t="s">
@@ -17636,7 +17728,7 @@
       <c r="B456" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C456" s="1" t="s">
+      <c r="C456" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D456" s="1" t="s">
@@ -17659,7 +17751,7 @@
       <c r="B457" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C457" s="1" t="s">
+      <c r="C457" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D457" s="1" t="s">
@@ -17682,7 +17774,7 @@
       <c r="B458" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C458" s="1" t="s">
+      <c r="C458" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D458" s="1" t="s">
@@ -17705,7 +17797,7 @@
       <c r="B459" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C459" s="1" t="s">
+      <c r="C459" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D459" s="1" t="s">
@@ -17728,7 +17820,7 @@
       <c r="B460" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C460" s="1" t="s">
+      <c r="C460" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -17751,7 +17843,7 @@
       <c r="B461" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C461" s="1" t="s">
+      <c r="C461" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D461" s="1" t="s">
@@ -17774,7 +17866,7 @@
       <c r="B462" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C462" s="1" t="s">
+      <c r="C462" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D462" s="1" t="s">
@@ -17797,7 +17889,7 @@
       <c r="B463" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C463" s="1" t="s">
+      <c r="C463" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D463" s="1" t="s">
@@ -17820,7 +17912,7 @@
       <c r="B464" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C464" s="1" t="s">
+      <c r="C464" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D464" s="1" t="s">
@@ -17843,7 +17935,7 @@
       <c r="B465" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C465" s="1" t="s">
+      <c r="C465" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D465" s="1" t="s">
@@ -17866,7 +17958,7 @@
       <c r="B466" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="C466" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D466" s="1" t="s">
@@ -17889,7 +17981,7 @@
       <c r="B467" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="C467" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D467" s="2" t="s">
@@ -17912,7 +18004,7 @@
       <c r="B468" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="C468" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D468" s="2" t="s">
@@ -17936,7 +18028,7 @@
       <c r="B469" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C469" s="2" t="s">
+      <c r="C469" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D469" s="2" t="s">
@@ -17960,7 +18052,7 @@
       <c r="B470" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C470" s="2" t="s">
+      <c r="C470" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D470" s="2" t="s">
@@ -17984,7 +18076,7 @@
       <c r="B471" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="C471" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D471" s="2" t="s">
@@ -18008,7 +18100,7 @@
       <c r="B472" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C472" s="2" t="s">
+      <c r="C472" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D472" s="2" t="s">
@@ -18032,7 +18124,7 @@
       <c r="B473" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C473" s="2" t="s">
+      <c r="C473" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D473" s="2" t="s">
@@ -18056,7 +18148,7 @@
       <c r="B474" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C474" s="2" t="s">
+      <c r="C474" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D474" s="2" t="s">
@@ -18080,7 +18172,7 @@
       <c r="B475" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C475" s="2" t="s">
+      <c r="C475" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D475" s="2" t="s">
@@ -18104,7 +18196,7 @@
       <c r="B476" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C476" s="2" t="s">
+      <c r="C476" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D476" s="2" t="s">
@@ -18128,7 +18220,7 @@
       <c r="B477" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C477" s="2" t="s">
+      <c r="C477" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D477" s="2" t="s">
@@ -18152,7 +18244,7 @@
       <c r="B478" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C478" s="2" t="s">
+      <c r="C478" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D478" s="2" t="s">
@@ -18176,7 +18268,7 @@
       <c r="B479" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C479" s="2" t="s">
+      <c r="C479" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D479" s="2" t="s">
@@ -18200,7 +18292,7 @@
       <c r="B480" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C480" s="2" t="s">
+      <c r="C480" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D480" s="2" t="s">
@@ -18224,7 +18316,7 @@
       <c r="B481" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C481" s="2" t="s">
+      <c r="C481" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D481" s="2" t="s">
@@ -18248,7 +18340,7 @@
       <c r="B482" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C482" s="2" t="s">
+      <c r="C482" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D482" s="2" t="s">
@@ -18272,7 +18364,7 @@
       <c r="B483" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C483" s="2" t="s">
+      <c r="C483" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D483" s="2" t="s">
@@ -18296,7 +18388,7 @@
       <c r="B484" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C484" s="2" t="s">
+      <c r="C484" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D484" s="2" t="s">
@@ -18320,7 +18412,7 @@
       <c r="B485" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C485" s="2" t="s">
+      <c r="C485" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D485" s="2" t="s">
@@ -18344,7 +18436,7 @@
       <c r="B486" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="C486" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D486" s="2" t="s">
@@ -18368,7 +18460,7 @@
       <c r="B487" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="C487" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D487" s="2" t="s">
@@ -18392,7 +18484,7 @@
       <c r="B488" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C488" s="2" t="s">
+      <c r="C488" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D488" s="2" t="s">
@@ -18416,7 +18508,7 @@
       <c r="B489" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C489" s="2" t="s">
+      <c r="C489" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D489" s="2" t="s">
@@ -18440,7 +18532,7 @@
       <c r="B490" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C490" s="2" t="s">
+      <c r="C490" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D490" s="2" t="s">
@@ -18464,7 +18556,7 @@
       <c r="B491" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C491" s="2" t="s">
+      <c r="C491" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D491" s="2" t="s">
@@ -18488,7 +18580,7 @@
       <c r="B492" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C492" s="2" t="s">
+      <c r="C492" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D492" s="2" t="s">
@@ -18512,7 +18604,7 @@
       <c r="B493" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C493" s="2" t="s">
+      <c r="C493" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D493" s="2" t="s">
@@ -18536,7 +18628,7 @@
       <c r="B494" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C494" s="2" t="s">
+      <c r="C494" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D494" s="2" t="s">
@@ -18560,7 +18652,7 @@
       <c r="B495" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C495" s="2" t="s">
+      <c r="C495" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D495" s="2" t="s">
@@ -18584,7 +18676,7 @@
       <c r="B496" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C496" s="2" t="s">
+      <c r="C496" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D496" s="2" t="s">
@@ -18608,7 +18700,7 @@
       <c r="B497" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C497" s="2" t="s">
+      <c r="C497" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D497" s="2" t="s">
@@ -18632,7 +18724,7 @@
       <c r="B498" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C498" s="2" t="s">
+      <c r="C498" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D498" s="2" t="s">
@@ -18656,7 +18748,7 @@
       <c r="B499" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C499" s="2" t="s">
+      <c r="C499" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D499" s="2" t="s">
@@ -18680,7 +18772,7 @@
       <c r="B500" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C500" s="2" t="s">
+      <c r="C500" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D500" s="2" t="s">
@@ -18704,7 +18796,7 @@
       <c r="B501" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C501" s="2" t="s">
+      <c r="C501" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D501" s="2" t="s">
@@ -18728,7 +18820,7 @@
       <c r="B502" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C502" s="2" t="s">
+      <c r="C502" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D502" s="2" t="s">
@@ -18752,7 +18844,7 @@
       <c r="B503" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C503" s="2" t="s">
+      <c r="C503" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D503" s="2" t="s">
@@ -18776,7 +18868,7 @@
       <c r="B504" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C504" s="2" t="s">
+      <c r="C504" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D504" s="2" t="s">
@@ -18800,7 +18892,7 @@
       <c r="B505" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C505" s="2" t="s">
+      <c r="C505" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D505" s="2" t="s">
@@ -18824,7 +18916,7 @@
       <c r="B506" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C506" s="2" t="s">
+      <c r="C506" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D506" s="2" t="s">
@@ -18848,7 +18940,7 @@
       <c r="B507" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C507" s="2" t="s">
+      <c r="C507" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D507" s="2" t="s">
@@ -18872,7 +18964,7 @@
       <c r="B508" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C508" s="2" t="s">
+      <c r="C508" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D508" s="2" t="s">
@@ -18896,7 +18988,7 @@
       <c r="B509" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C509" s="2" t="s">
+      <c r="C509" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D509" s="2" t="s">
@@ -18920,7 +19012,7 @@
       <c r="B510" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C510" s="2" t="s">
+      <c r="C510" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D510" s="2" t="s">
@@ -18944,7 +19036,7 @@
       <c r="B511" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C511" s="2" t="s">
+      <c r="C511" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D511" s="2" t="s">
@@ -18968,7 +19060,7 @@
       <c r="B512" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C512" s="2" t="s">
+      <c r="C512" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D512" s="2" t="s">
@@ -18992,7 +19084,7 @@
       <c r="B513" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C513" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D513" s="2" t="s">
@@ -19016,7 +19108,7 @@
       <c r="B514" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C514" s="2" t="s">
+      <c r="C514" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D514" s="2" t="s">
@@ -19040,7 +19132,7 @@
       <c r="B515" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C515" s="2" t="s">
+      <c r="C515" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D515" s="2" t="s">
@@ -19064,7 +19156,7 @@
       <c r="B516" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C516" s="2" t="s">
+      <c r="C516" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D516" s="2" t="s">
@@ -19088,7 +19180,7 @@
       <c r="B517" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C517" s="1" t="s">
+      <c r="C517" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D517" s="1" t="s">
@@ -19111,7 +19203,7 @@
       <c r="B518" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C518" s="1" t="s">
+      <c r="C518" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D518" s="1" t="s">
@@ -19134,7 +19226,7 @@
       <c r="B519" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C519" s="1" t="s">
+      <c r="C519" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D519" s="1" t="s">
@@ -19157,7 +19249,7 @@
       <c r="B520" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C520" s="1" t="s">
+      <c r="C520" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D520" s="1" t="s">
@@ -19180,7 +19272,7 @@
       <c r="B521" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C521" s="1" t="s">
+      <c r="C521" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D521" s="1" t="s">
@@ -19203,7 +19295,7 @@
       <c r="B522" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C522" s="1" t="s">
+      <c r="C522" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D522" s="1" t="s">
@@ -19226,7 +19318,7 @@
       <c r="B523" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C523" s="1" t="s">
+      <c r="C523" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D523" s="1" t="s">
@@ -19249,7 +19341,7 @@
       <c r="B524" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C524" s="1" t="s">
+      <c r="C524" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D524" s="1" t="s">
@@ -19272,7 +19364,7 @@
       <c r="B525" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C525" s="1" t="s">
+      <c r="C525" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D525" s="1" t="s">
@@ -19295,7 +19387,7 @@
       <c r="B526" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C526" s="1" t="s">
+      <c r="C526" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D526" s="1" t="s">
@@ -19318,7 +19410,7 @@
       <c r="B527" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C527" s="1" t="s">
+      <c r="C527" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D527" s="1" t="s">
@@ -19341,7 +19433,7 @@
       <c r="B528" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C528" s="1" t="s">
+      <c r="C528" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D528" s="1" t="s">
@@ -19364,7 +19456,7 @@
       <c r="B529" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C529" s="1" t="s">
+      <c r="C529" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D529" s="1" t="s">
@@ -19387,7 +19479,7 @@
       <c r="B530" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C530" s="1" t="s">
+      <c r="C530" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D530" s="1" t="s">
@@ -19410,7 +19502,7 @@
       <c r="B531" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C531" s="1" t="s">
+      <c r="C531" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D531" s="1" t="s">
@@ -19433,7 +19525,7 @@
       <c r="B532" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C532" s="1" t="s">
+      <c r="C532" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D532" s="1" t="s">
@@ -19456,7 +19548,7 @@
       <c r="B533" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C533" s="1" t="s">
+      <c r="C533" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D533" s="1" t="s">
@@ -19479,7 +19571,7 @@
       <c r="B534" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C534" s="1" t="s">
+      <c r="C534" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D534" s="1" t="s">
@@ -19502,7 +19594,7 @@
       <c r="B535" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C535" s="1" t="s">
+      <c r="C535" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D535" s="1" t="s">
@@ -19525,7 +19617,7 @@
       <c r="B536" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C536" s="1" t="s">
+      <c r="C536" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D536" s="1" t="s">
@@ -19548,7 +19640,7 @@
       <c r="B537" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C537" s="1" t="s">
+      <c r="C537" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D537" s="1" t="s">
@@ -19571,7 +19663,7 @@
       <c r="B538" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C538" s="1" t="s">
+      <c r="C538" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D538" s="1" t="s">
@@ -19594,7 +19686,7 @@
       <c r="B539" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C539" s="1" t="s">
+      <c r="C539" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D539" s="1" t="s">
@@ -19617,7 +19709,7 @@
       <c r="B540" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="C540" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D540" s="1" t="s">
@@ -19640,7 +19732,7 @@
       <c r="B541" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C541" s="1" t="s">
+      <c r="C541" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D541" s="1" t="s">
@@ -19663,7 +19755,7 @@
       <c r="B542" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C542" s="1" t="s">
+      <c r="C542" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D542" s="1" t="s">
@@ -19686,7 +19778,7 @@
       <c r="B543" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C543" s="1" t="s">
+      <c r="C543" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D543" s="1" t="s">
@@ -19709,7 +19801,7 @@
       <c r="B544" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C544" s="1" t="s">
+      <c r="C544" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D544" s="1" t="s">
@@ -19732,7 +19824,7 @@
       <c r="B545" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C545" s="1" t="s">
+      <c r="C545" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D545" s="1" t="s">
@@ -19755,7 +19847,7 @@
       <c r="B546" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C546" s="1" t="s">
+      <c r="C546" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D546" s="1" t="s">
@@ -19778,7 +19870,7 @@
       <c r="B547" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C547" s="1" t="s">
+      <c r="C547" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D547" s="1" t="s">
@@ -19801,7 +19893,7 @@
       <c r="B548" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C548" s="1" t="s">
+      <c r="C548" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D548" s="1" t="s">
@@ -19824,7 +19916,7 @@
       <c r="B549" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C549" s="1" t="s">
+      <c r="C549" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D549" s="1" t="s">
@@ -19847,7 +19939,7 @@
       <c r="B550" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C550" s="1" t="s">
+      <c r="C550" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D550" s="1" t="s">
@@ -19870,7 +19962,7 @@
       <c r="B551" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C551" s="1" t="s">
+      <c r="C551" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D551" s="1" t="s">
@@ -19893,7 +19985,7 @@
       <c r="B552" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C552" s="1" t="s">
+      <c r="C552" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D552" s="1" t="s">
@@ -19916,7 +20008,7 @@
       <c r="B553" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C553" s="1" t="s">
+      <c r="C553" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D553" s="1" t="s">
@@ -19939,7 +20031,7 @@
       <c r="B554" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C554" s="1" t="s">
+      <c r="C554" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D554" s="1" t="s">
@@ -19962,7 +20054,7 @@
       <c r="B555" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C555" s="1" t="s">
+      <c r="C555" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D555" s="1" t="s">
@@ -19985,7 +20077,7 @@
       <c r="B556" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C556" s="1" t="s">
+      <c r="C556" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D556" s="1" t="s">
@@ -20008,7 +20100,7 @@
       <c r="B557" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C557" s="1" t="s">
+      <c r="C557" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D557" s="1" t="s">
@@ -20031,7 +20123,7 @@
       <c r="B558" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C558" s="1" t="s">
+      <c r="C558" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D558" s="1" t="s">
@@ -20054,7 +20146,7 @@
       <c r="B559" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C559" s="1" t="s">
+      <c r="C559" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D559" s="1" t="s">
@@ -20077,7 +20169,7 @@
       <c r="B560" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C560" s="1" t="s">
+      <c r="C560" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D560" s="1" t="s">
@@ -20100,7 +20192,7 @@
       <c r="B561" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C561" s="1" t="s">
+      <c r="C561" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D561" s="1" t="s">
@@ -20123,7 +20215,7 @@
       <c r="B562" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C562" s="1" t="s">
+      <c r="C562" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D562" s="1" t="s">
@@ -20146,7 +20238,7 @@
       <c r="B563" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C563" s="1" t="s">
+      <c r="C563" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D563" s="1" t="s">
@@ -20169,7 +20261,7 @@
       <c r="B564" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C564" s="1" t="s">
+      <c r="C564" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D564" s="1" t="s">
@@ -20192,7 +20284,7 @@
       <c r="B565" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C565" s="1" t="s">
+      <c r="C565" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D565" s="1" t="s">
@@ -20215,7 +20307,7 @@
       <c r="B566" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C566" s="1" t="s">
+      <c r="C566" s="24" t="s">
         <v>38</v>
       </c>
       <c r="D566" s="1" t="s">
@@ -20238,7 +20330,7 @@
       <c r="B567" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="C567" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D567" s="2" t="s">
@@ -20270,7 +20362,7 @@
       <c r="B568" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="C568" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D568" s="2" t="s">
@@ -20302,7 +20394,7 @@
       <c r="B569" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="C569" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D569" s="2" t="s">
@@ -20334,7 +20426,7 @@
       <c r="B570" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C570" s="2" t="s">
+      <c r="C570" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D570" s="2" t="s">
@@ -20366,7 +20458,7 @@
       <c r="B571" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C571" s="2" t="s">
+      <c r="C571" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D571" s="2" t="s">
@@ -20398,7 +20490,7 @@
       <c r="B572" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="C572" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D572" s="2" t="s">
@@ -20430,7 +20522,7 @@
       <c r="B573" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C573" s="2" t="s">
+      <c r="C573" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D573" s="2" t="s">
@@ -20462,7 +20554,7 @@
       <c r="B574" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="C574" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D574" s="2" t="s">
@@ -20494,7 +20586,7 @@
       <c r="B575" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C575" s="1" t="s">
+      <c r="C575" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D575" s="1" t="s">
@@ -20526,7 +20618,7 @@
       <c r="B576" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C576" s="1" t="s">
+      <c r="C576" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D576" s="1" t="s">
@@ -20558,7 +20650,7 @@
       <c r="B577" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C577" s="1" t="s">
+      <c r="C577" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D577" s="1" t="s">
@@ -20590,7 +20682,7 @@
       <c r="B578" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C578" s="1" t="s">
+      <c r="C578" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D578" s="1" t="s">
@@ -20622,7 +20714,7 @@
       <c r="B579" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C579" s="1" t="s">
+      <c r="C579" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D579" s="1" t="s">
@@ -20654,7 +20746,7 @@
       <c r="B580" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C580" s="2" t="s">
+      <c r="C580" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D580" s="2" t="s">
@@ -20686,7 +20778,7 @@
       <c r="B581" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C581" s="2" t="s">
+      <c r="C581" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D581" s="2" t="s">
@@ -20718,7 +20810,7 @@
       <c r="B582" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C582" s="2" t="s">
+      <c r="C582" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D582" s="2" t="s">
@@ -20750,7 +20842,7 @@
       <c r="B583" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C583" s="2" t="s">
+      <c r="C583" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D583" s="2" t="s">
@@ -20782,7 +20874,7 @@
       <c r="B584" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C584" s="2" t="s">
+      <c r="C584" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D584" s="2" t="s">
@@ -20814,7 +20906,7 @@
       <c r="B585" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C585" s="2" t="s">
+      <c r="C585" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D585" s="2" t="s">
@@ -20846,7 +20938,7 @@
       <c r="B586" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="C586" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D586" s="2" t="s">
@@ -20878,7 +20970,7 @@
       <c r="B587" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C587" s="2" t="s">
+      <c r="C587" s="25" t="s">
         <v>225</v>
       </c>
       <c r="D587" s="2" t="s">
@@ -20910,7 +21002,7 @@
       <c r="B588" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C588" s="1" t="s">
+      <c r="C588" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D588" s="1" t="s">
@@ -20942,7 +21034,7 @@
       <c r="B589" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C589" s="1" t="s">
+      <c r="C589" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D589" s="1" t="s">
@@ -20974,7 +21066,7 @@
       <c r="B590" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C590" s="1" t="s">
+      <c r="C590" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D590" s="1" t="s">
@@ -21006,7 +21098,7 @@
       <c r="B591" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C591" s="1" t="s">
+      <c r="C591" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D591" s="1" t="s">
@@ -21038,7 +21130,7 @@
       <c r="B592" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C592" s="1" t="s">
+      <c r="C592" s="24" t="s">
         <v>225</v>
       </c>
       <c r="D592" s="1" t="s">
@@ -21070,7 +21162,7 @@
       <c r="B593" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C593" s="2" t="s">
+      <c r="C593" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D593" s="2" t="s">
@@ -21102,7 +21194,7 @@
       <c r="B594" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="C594" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D594" s="2" t="s">
@@ -21134,7 +21226,7 @@
       <c r="B595" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C595" s="2" t="s">
+      <c r="C595" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D595" s="2" t="s">
@@ -21166,7 +21258,7 @@
       <c r="B596" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="C596" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D596" s="2" t="s">
@@ -21198,7 +21290,7 @@
       <c r="B597" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C597" s="2" t="s">
+      <c r="C597" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D597" s="2" t="s">
@@ -21230,7 +21322,7 @@
       <c r="B598" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="C598" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D598" s="2" t="s">
@@ -21262,7 +21354,7 @@
       <c r="B599" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="C599" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D599" s="2" t="s">
@@ -21294,7 +21386,7 @@
       <c r="B600" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="C600" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D600" s="2" t="s">
@@ -21326,7 +21418,7 @@
       <c r="B601" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C601" s="1" t="s">
+      <c r="C601" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D601" s="1" t="s">
@@ -21358,7 +21450,7 @@
       <c r="B602" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C602" s="1" t="s">
+      <c r="C602" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D602" s="1" t="s">
@@ -21390,7 +21482,7 @@
       <c r="B603" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C603" s="1" t="s">
+      <c r="C603" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D603" s="1" t="s">
@@ -21422,7 +21514,7 @@
       <c r="B604" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C604" s="1" t="s">
+      <c r="C604" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D604" s="1" t="s">
@@ -21454,7 +21546,7 @@
       <c r="B605" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C605" s="1" t="s">
+      <c r="C605" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D605" s="1" t="s">
@@ -21486,7 +21578,7 @@
       <c r="B606" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="C606" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D606" s="2" t="s">
@@ -21518,7 +21610,7 @@
       <c r="B607" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="C607" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D607" s="2" t="s">
@@ -21550,7 +21642,7 @@
       <c r="B608" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C608" s="2" t="s">
+      <c r="C608" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D608" s="2" t="s">
@@ -21582,7 +21674,7 @@
       <c r="B609" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C609" s="2" t="s">
+      <c r="C609" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D609" s="2" t="s">
@@ -21614,7 +21706,7 @@
       <c r="B610" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C610" s="2" t="s">
+      <c r="C610" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D610" s="2" t="s">
@@ -21646,7 +21738,7 @@
       <c r="B611" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C611" s="2" t="s">
+      <c r="C611" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D611" s="2" t="s">
@@ -21678,7 +21770,7 @@
       <c r="B612" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C612" s="2" t="s">
+      <c r="C612" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D612" s="2" t="s">
@@ -21710,7 +21802,7 @@
       <c r="B613" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C613" s="2" t="s">
+      <c r="C613" s="25" t="s">
         <v>226</v>
       </c>
       <c r="D613" s="2" t="s">
@@ -21742,7 +21834,7 @@
       <c r="B614" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C614" s="1" t="s">
+      <c r="C614" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D614" s="1" t="s">
@@ -21774,7 +21866,7 @@
       <c r="B615" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C615" s="1" t="s">
+      <c r="C615" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D615" s="1" t="s">
@@ -21806,7 +21898,7 @@
       <c r="B616" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C616" s="1" t="s">
+      <c r="C616" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D616" s="1" t="s">
@@ -21838,7 +21930,7 @@
       <c r="B617" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C617" s="1" t="s">
+      <c r="C617" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D617" s="1" t="s">
@@ -21870,7 +21962,7 @@
       <c r="B618" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C618" s="1" t="s">
+      <c r="C618" s="24" t="s">
         <v>226</v>
       </c>
       <c r="D618" s="1" t="s">
@@ -21902,7 +21994,7 @@
       <c r="B619" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C619" s="2" t="s">
+      <c r="C619" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D619" s="2" t="s">
@@ -21934,7 +22026,7 @@
       <c r="B620" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C620" s="2" t="s">
+      <c r="C620" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D620" s="2" t="s">
@@ -21966,7 +22058,7 @@
       <c r="B621" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C621" s="1" t="s">
+      <c r="C621" s="24" t="s">
         <v>227</v>
       </c>
       <c r="D621" s="2" t="s">
@@ -21998,7 +22090,7 @@
       <c r="B622" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C622" s="2" t="s">
+      <c r="C622" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D622" s="2" t="s">
@@ -22030,7 +22122,7 @@
       <c r="B623" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C623" s="2" t="s">
+      <c r="C623" s="25" t="s">
         <v>227</v>
       </c>
       <c r="D623" s="2" t="s">
@@ -22062,7 +22154,7 @@
       <c r="B624" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C624" s="1" t="s">
+      <c r="C624" s="24" t="s">
         <v>227</v>
       </c>
       <c r="D624" s="1" t="s">
@@ -22094,7 +22186,7 @@
       <c r="B625" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C625" s="2" t="s">
+      <c r="C625" s="25" t="s">
         <v>243</v>
       </c>
       <c r="D625" s="2" t="s">
@@ -22126,7 +22218,7 @@
       <c r="B626" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C626" s="2" t="s">
+      <c r="C626" s="25" t="s">
         <v>243</v>
       </c>
       <c r="D626" s="2" t="s">
@@ -22158,7 +22250,7 @@
       <c r="B627" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C627" s="2" t="s">
+      <c r="C627" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D627" s="2" t="s">
@@ -22190,7 +22282,7 @@
       <c r="B628" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C628" s="2" t="s">
+      <c r="C628" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D628" s="2" t="s">
@@ -22222,7 +22314,7 @@
       <c r="B629" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C629" s="2" t="s">
+      <c r="C629" s="25" t="s">
         <v>228</v>
       </c>
       <c r="D629" s="2" t="s">
@@ -22254,7 +22346,7 @@
       <c r="B630" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C630" s="1" t="s">
+      <c r="C630" s="24" t="s">
         <v>228</v>
       </c>
       <c r="D630" s="1" t="s">
@@ -22286,7 +22378,7 @@
       <c r="B631" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C631" s="1" t="s">
+      <c r="C631" s="24" t="s">
         <v>228</v>
       </c>
       <c r="D631" s="1" t="s">
@@ -22318,7 +22410,7 @@
       <c r="B632" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C632" s="1" t="s">
+      <c r="C632" s="24" t="s">
         <v>228</v>
       </c>
       <c r="D632" s="1" t="s">
@@ -22350,7 +22442,7 @@
       <c r="B633" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C633" s="1" t="s">
+      <c r="C633" s="24" t="s">
         <v>228</v>
       </c>
       <c r="D633" s="1" t="s">
@@ -22382,7 +22474,7 @@
       <c r="B634" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C634" s="2" t="s">
+      <c r="C634" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D634" s="2" t="s">
@@ -22406,7 +22498,7 @@
       <c r="B635" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C635" s="1" t="s">
+      <c r="C635" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D635" s="1" t="s">
@@ -22429,7 +22521,7 @@
       <c r="B636" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C636" s="1" t="s">
+      <c r="C636" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D636" s="1" t="s">
@@ -22452,7 +22544,7 @@
       <c r="B637" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C637" s="1" t="s">
+      <c r="C637" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D637" s="1" t="s">
@@ -22475,7 +22567,7 @@
       <c r="B638" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C638" s="2" t="s">
+      <c r="C638" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D638" s="2" t="s">
@@ -22507,7 +22599,7 @@
       <c r="B639" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C639" s="1" t="s">
+      <c r="C639" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D639" s="1" t="s">
@@ -22539,7 +22631,7 @@
       <c r="B640" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C640" s="1" t="s">
+      <c r="C640" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D640" s="1" t="s">
@@ -22571,7 +22663,7 @@
       <c r="B641" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C641" s="1" t="s">
+      <c r="C641" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D641" s="1" t="s">
@@ -22603,7 +22695,7 @@
       <c r="B642" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C642" s="2" t="s">
+      <c r="C642" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D642" s="2" t="s">
@@ -22635,7 +22727,7 @@
       <c r="B643" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C643" s="1" t="s">
+      <c r="C643" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D643" s="1" t="s">
@@ -22667,7 +22759,7 @@
       <c r="B644" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C644" s="1" t="s">
+      <c r="C644" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D644" s="1" t="s">
@@ -22699,7 +22791,7 @@
       <c r="B645" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C645" s="1" t="s">
+      <c r="C645" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D645" s="1" t="s">
@@ -22731,7 +22823,7 @@
       <c r="B646" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C646" s="2" t="s">
+      <c r="C646" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D646" s="2" t="s">
@@ -22755,7 +22847,7 @@
       <c r="B647" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C647" s="1" t="s">
+      <c r="C647" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D647" s="1" t="s">
@@ -22778,7 +22870,7 @@
       <c r="B648" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C648" s="1" t="s">
+      <c r="C648" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D648" s="1" t="s">
@@ -22801,7 +22893,7 @@
       <c r="B649" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C649" s="1" t="s">
+      <c r="C649" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D649" s="1" t="s">
@@ -22824,7 +22916,7 @@
       <c r="B650" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C650" s="2" t="s">
+      <c r="C650" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D650" s="2" t="s">
@@ -22848,7 +22940,7 @@
       <c r="B651" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C651" s="1" t="s">
+      <c r="C651" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D651" s="1" t="s">
@@ -22871,7 +22963,7 @@
       <c r="B652" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C652" s="1" t="s">
+      <c r="C652" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D652" s="1" t="s">
@@ -22894,7 +22986,7 @@
       <c r="B653" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C653" s="1" t="s">
+      <c r="C653" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D653" s="1" t="s">
@@ -22917,7 +23009,7 @@
       <c r="B654" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C654" s="2" t="s">
+      <c r="C654" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D654" s="2" t="s">
@@ -22941,7 +23033,7 @@
       <c r="B655" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C655" s="1" t="s">
+      <c r="C655" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D655" s="1" t="s">
@@ -22964,7 +23056,7 @@
       <c r="B656" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C656" s="1" t="s">
+      <c r="C656" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D656" s="1" t="s">
@@ -22987,7 +23079,7 @@
       <c r="B657" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C657" s="1" t="s">
+      <c r="C657" s="24" t="s">
         <v>53</v>
       </c>
       <c r="D657" s="1" t="s">
@@ -23010,7 +23102,7 @@
       <c r="B658" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C658" s="1" t="s">
+      <c r="C658" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D658" s="1" t="s">
@@ -23033,7 +23125,7 @@
       <c r="B659" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C659" s="1" t="s">
+      <c r="C659" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D659" s="1" t="s">
@@ -23056,7 +23148,7 @@
       <c r="B660" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C660" s="1" t="s">
+      <c r="C660" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D660" s="1" t="s">
@@ -23079,7 +23171,7 @@
       <c r="B661" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C661" s="1" t="s">
+      <c r="C661" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D661" s="1" t="s">
@@ -23111,7 +23203,7 @@
       <c r="B662" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C662" s="1" t="s">
+      <c r="C662" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D662" s="1" t="s">
@@ -23143,7 +23235,7 @@
       <c r="B663" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C663" s="1" t="s">
+      <c r="C663" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D663" s="1" t="s">
@@ -23166,7 +23258,7 @@
       <c r="B664" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C664" s="2" t="s">
+      <c r="C664" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D664" s="2" t="s">
@@ -23198,7 +23290,7 @@
       <c r="B665" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C665" s="2" t="s">
+      <c r="C665" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D665" s="2" t="s">
@@ -23230,7 +23322,7 @@
       <c r="B666" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C666" s="1" t="s">
+      <c r="C666" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D666" s="1" t="s">
@@ -23262,7 +23354,7 @@
       <c r="B667" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C667" s="1" t="s">
+      <c r="C667" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D667" s="1" t="s">
@@ -23294,7 +23386,7 @@
       <c r="B668" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C668" s="2" t="s">
+      <c r="C668" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D668" s="2" t="s">
@@ -23326,7 +23418,7 @@
       <c r="B669" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C669" s="2" t="s">
+      <c r="C669" s="25" t="s">
         <v>24</v>
       </c>
       <c r="D669" s="2" t="s">
@@ -23358,7 +23450,7 @@
       <c r="B670" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C670" s="1" t="s">
+      <c r="C670" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D670" s="1" t="s">
@@ -23390,7 +23482,7 @@
       <c r="B671" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C671" s="1" t="s">
+      <c r="C671" s="24" t="s">
         <v>24</v>
       </c>
       <c r="D671" s="1" t="s">
@@ -23422,7 +23514,7 @@
       <c r="B672" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C672" s="2" t="s">
+      <c r="C672" s="25" t="s">
         <v>229</v>
       </c>
       <c r="D672" s="2" t="s">
@@ -23454,7 +23546,7 @@
       <c r="B673" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C673" s="2" t="s">
+      <c r="C673" s="25" t="s">
         <v>229</v>
       </c>
       <c r="D673" s="2" t="s">
@@ -23486,7 +23578,7 @@
       <c r="B674" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C674" s="2" t="s">
+      <c r="C674" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D674" s="2" t="s">
@@ -23518,7 +23610,7 @@
       <c r="B675" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C675" s="2" t="s">
+      <c r="C675" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D675" s="2" t="s">
@@ -23550,7 +23642,7 @@
       <c r="B676" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C676" s="2" t="s">
+      <c r="C676" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D676" s="2" t="s">
@@ -23577,7 +23669,7 @@
       <c r="B677" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C677" s="5" t="s">
+      <c r="C677" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D677" s="5" t="s">
@@ -23604,7 +23696,7 @@
       <c r="B678" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C678" s="14" t="s">
+      <c r="C678" s="27" t="s">
         <v>70</v>
       </c>
       <c r="D678" s="8" t="s">
@@ -23636,7 +23728,7 @@
       <c r="B679" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C679" s="2" t="s">
+      <c r="C679" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D679" s="10" t="s">
@@ -23668,7 +23760,7 @@
       <c r="B680" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C680" s="2" t="s">
+      <c r="C680" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D680" s="10" t="s">
@@ -23700,7 +23792,7 @@
       <c r="B681" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C681" s="2" t="s">
+      <c r="C681" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D681" s="10" t="s">
@@ -23732,7 +23824,7 @@
       <c r="B682" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C682" s="2" t="s">
+      <c r="C682" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D682" s="10" t="s">
@@ -23764,7 +23856,7 @@
       <c r="B683" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C683" s="2" t="s">
+      <c r="C683" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D683" s="10" t="s">
@@ -23796,7 +23888,7 @@
       <c r="B684" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C684" s="2" t="s">
+      <c r="C684" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D684" s="10" t="s">
@@ -23828,7 +23920,7 @@
       <c r="B685" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C685" s="2" t="s">
+      <c r="C685" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D685" s="10" t="s">
@@ -23860,7 +23952,7 @@
       <c r="B686" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C686" s="2" t="s">
+      <c r="C686" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D686" s="10" t="s">
@@ -23892,7 +23984,7 @@
       <c r="B687" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C687" s="2" t="s">
+      <c r="C687" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D687" s="10" t="s">
@@ -23924,7 +24016,7 @@
       <c r="B688" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C688" s="2" t="s">
+      <c r="C688" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D688" s="10" t="s">
@@ -23956,7 +24048,7 @@
       <c r="B689" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C689" s="2" t="s">
+      <c r="C689" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D689" s="10" t="s">
@@ -23988,7 +24080,7 @@
       <c r="B690" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C690" s="2" t="s">
+      <c r="C690" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D690" s="10" t="s">
@@ -24020,7 +24112,7 @@
       <c r="B691" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C691" s="2" t="s">
+      <c r="C691" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D691" s="10" t="s">
@@ -24052,7 +24144,7 @@
       <c r="B692" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C692" s="2" t="s">
+      <c r="C692" s="25" t="s">
         <v>70</v>
       </c>
       <c r="D692" s="10" t="s">
@@ -24084,7 +24176,7 @@
       <c r="B693" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C693" s="13" t="s">
+      <c r="C693" s="28" t="s">
         <v>70</v>
       </c>
       <c r="D693" s="12" t="s">
@@ -24116,7 +24208,7 @@
       <c r="B694" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C694" s="6" t="s">
+      <c r="C694" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D694" s="6" t="s">
@@ -24148,7 +24240,7 @@
       <c r="B695" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C695" s="2" t="s">
+      <c r="C695" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D695" s="2" t="s">
@@ -24180,7 +24272,7 @@
       <c r="B696" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C696" s="2" t="s">
+      <c r="C696" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D696" s="2" t="s">
@@ -24212,7 +24304,7 @@
       <c r="B697" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C697" s="2" t="s">
+      <c r="C697" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D697" s="2" t="s">
@@ -24244,7 +24336,7 @@
       <c r="B698" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C698" s="1" t="s">
+      <c r="C698" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D698" s="1" t="s">
@@ -24276,7 +24368,7 @@
       <c r="B699" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C699" s="1" t="s">
+      <c r="C699" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D699" s="1" t="s">
@@ -24299,7 +24391,7 @@
       <c r="B700" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C700" s="2" t="s">
+      <c r="C700" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D700" s="2" t="s">
@@ -24331,7 +24423,7 @@
       <c r="B701" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C701" s="2" t="s">
+      <c r="C701" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D701" s="2" t="s">
@@ -24363,7 +24455,7 @@
       <c r="B702" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C702" s="2" t="s">
+      <c r="C702" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D702" s="2" t="s">
@@ -24395,7 +24487,7 @@
       <c r="B703" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C703" s="2" t="s">
+      <c r="C703" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D703" s="2" t="s">
@@ -24427,7 +24519,7 @@
       <c r="B704" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C704" s="1" t="s">
+      <c r="C704" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D704" s="1" t="s">
@@ -24459,7 +24551,7 @@
       <c r="B705" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C705" s="2" t="s">
+      <c r="C705" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D705" s="2" t="s">
@@ -24491,7 +24583,7 @@
       <c r="B706" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C706" s="2" t="s">
+      <c r="C706" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D706" s="2" t="s">
@@ -24523,7 +24615,7 @@
       <c r="B707" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C707" s="2" t="s">
+      <c r="C707" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D707" s="2" t="s">
@@ -24555,7 +24647,7 @@
       <c r="B708" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C708" s="2" t="s">
+      <c r="C708" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D708" s="2" t="s">
@@ -24587,7 +24679,7 @@
       <c r="B709" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C709" s="1" t="s">
+      <c r="C709" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D709" s="1" t="s">
@@ -24619,7 +24711,7 @@
       <c r="B710" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C710" s="2" t="s">
+      <c r="C710" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D710" s="2" t="s">
@@ -24651,7 +24743,7 @@
       <c r="B711" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C711" s="2" t="s">
+      <c r="C711" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D711" s="2" t="s">
@@ -24683,7 +24775,7 @@
       <c r="B712" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C712" s="2" t="s">
+      <c r="C712" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D712" s="2" t="s">
@@ -24715,7 +24807,7 @@
       <c r="B713" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C713" s="2" t="s">
+      <c r="C713" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D713" s="2" t="s">
@@ -24747,7 +24839,7 @@
       <c r="B714" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C714" s="1" t="s">
+      <c r="C714" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D714" s="1" t="s">
@@ -24779,7 +24871,7 @@
       <c r="B715" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C715" s="2" t="s">
+      <c r="C715" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D715" s="2" t="s">
@@ -24811,7 +24903,7 @@
       <c r="B716" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C716" s="2" t="s">
+      <c r="C716" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D716" s="2" t="s">
@@ -24843,7 +24935,7 @@
       <c r="B717" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C717" s="2" t="s">
+      <c r="C717" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D717" s="2" t="s">
@@ -24875,7 +24967,7 @@
       <c r="B718" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C718" s="2" t="s">
+      <c r="C718" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D718" s="2" t="s">
@@ -24907,7 +24999,7 @@
       <c r="B719" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C719" s="1" t="s">
+      <c r="C719" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D719" s="1" t="s">
@@ -24939,7 +25031,7 @@
       <c r="B720" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C720" s="2" t="s">
+      <c r="C720" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D720" s="2" t="s">
@@ -24971,7 +25063,7 @@
       <c r="B721" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C721" s="2" t="s">
+      <c r="C721" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D721" s="2" t="s">
@@ -25003,7 +25095,7 @@
       <c r="B722" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C722" s="2" t="s">
+      <c r="C722" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D722" s="2" t="s">
@@ -25035,7 +25127,7 @@
       <c r="B723" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C723" s="2" t="s">
+      <c r="C723" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D723" s="2" t="s">
@@ -25067,7 +25159,7 @@
       <c r="B724" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C724" s="1" t="s">
+      <c r="C724" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D724" s="1" t="s">
@@ -25099,7 +25191,7 @@
       <c r="B725" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C725" s="2" t="s">
+      <c r="C725" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D725" s="2" t="s">
@@ -25131,7 +25223,7 @@
       <c r="B726" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C726" s="2" t="s">
+      <c r="C726" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D726" s="2" t="s">
@@ -25163,7 +25255,7 @@
       <c r="B727" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C727" s="2" t="s">
+      <c r="C727" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D727" s="2" t="s">
@@ -25195,7 +25287,7 @@
       <c r="B728" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C728" s="1" t="s">
+      <c r="C728" s="24" t="s">
         <v>230</v>
       </c>
       <c r="D728" s="1" t="s">
@@ -25227,7 +25319,7 @@
       <c r="B729" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C729" s="2" t="s">
+      <c r="C729" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D729" s="2" t="s">
@@ -25259,7 +25351,7 @@
       <c r="B730" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C730" s="1" t="s">
+      <c r="C730" s="24" t="s">
         <v>230</v>
       </c>
       <c r="D730" s="1" t="s">
@@ -25291,7 +25383,7 @@
       <c r="B731" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C731" s="2" t="s">
+      <c r="C731" s="25" t="s">
         <v>231</v>
       </c>
       <c r="D731" s="2" t="s">
@@ -25323,7 +25415,7 @@
       <c r="B732" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C732" s="1" t="s">
+      <c r="C732" s="24" t="s">
         <v>231</v>
       </c>
       <c r="D732" s="1" t="s">
@@ -25355,7 +25447,7 @@
       <c r="B733" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C733" s="2" t="s">
+      <c r="C733" s="25" t="s">
         <v>231</v>
       </c>
       <c r="D733" s="2" t="s">
@@ -25387,7 +25479,7 @@
       <c r="B734" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C734" s="1" t="s">
+      <c r="C734" s="24" t="s">
         <v>231</v>
       </c>
       <c r="D734" s="1" t="s">
@@ -25419,7 +25511,7 @@
       <c r="B735" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C735" s="2" t="s">
+      <c r="C735" s="25" t="s">
         <v>231</v>
       </c>
       <c r="D735" s="2" t="s">
@@ -25451,7 +25543,7 @@
       <c r="B736" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C736" s="1" t="s">
+      <c r="C736" s="24" t="s">
         <v>231</v>
       </c>
       <c r="D736" s="1" t="s">
@@ -25483,7 +25575,7 @@
       <c r="B737" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C737" s="2" t="s">
+      <c r="C737" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D737" s="2" t="s">
@@ -25515,7 +25607,7 @@
       <c r="B738" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C738" s="1" t="s">
+      <c r="C738" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D738" s="1" t="s">
@@ -25547,7 +25639,7 @@
       <c r="B739" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C739" s="2" t="s">
+      <c r="C739" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D739" s="2" t="s">
@@ -25579,7 +25671,7 @@
       <c r="B740" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C740" s="1" t="s">
+      <c r="C740" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D740" s="1" t="s">
@@ -25611,7 +25703,7 @@
       <c r="B741" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C741" s="2" t="s">
+      <c r="C741" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D741" s="2" t="s">
@@ -25635,7 +25727,7 @@
       <c r="B742" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C742" s="1" t="s">
+      <c r="C742" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D742" s="1" t="s">
@@ -25658,7 +25750,7 @@
       <c r="B743" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C743" s="2" t="s">
+      <c r="C743" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D743" s="2" t="s">
@@ -25682,7 +25774,7 @@
       <c r="B744" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C744" s="1" t="s">
+      <c r="C744" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D744" s="1" t="s">
@@ -25705,7 +25797,7 @@
       <c r="B745" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C745" s="2" t="s">
+      <c r="C745" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D745" s="2" t="s">
@@ -25729,7 +25821,7 @@
       <c r="B746" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C746" s="1" t="s">
+      <c r="C746" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D746" s="1" t="s">
@@ -25752,7 +25844,7 @@
       <c r="B747" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C747" s="2" t="s">
+      <c r="C747" s="25" t="s">
         <v>87</v>
       </c>
       <c r="D747" s="2" t="s">
@@ -25776,7 +25868,7 @@
       <c r="B748" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C748" s="1" t="s">
+      <c r="C748" s="24" t="s">
         <v>87</v>
       </c>
       <c r="D748" s="1" t="s">
@@ -25799,7 +25891,7 @@
       <c r="B749" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C749" s="2" t="s">
+      <c r="C749" s="25" t="s">
         <v>232</v>
       </c>
       <c r="D749" s="2" t="s">
@@ -25831,7 +25923,7 @@
       <c r="B750" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C750" s="1" t="s">
+      <c r="C750" s="24" t="s">
         <v>232</v>
       </c>
       <c r="D750" s="1" t="s">
@@ -25863,7 +25955,7 @@
       <c r="B751" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C751" s="2" t="s">
+      <c r="C751" s="25" t="s">
         <v>232</v>
       </c>
       <c r="D751" s="1" t="s">
@@ -25886,7 +25978,7 @@
       <c r="B752" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C752" s="1" t="s">
+      <c r="C752" s="24" t="s">
         <v>232</v>
       </c>
       <c r="D752" s="1" t="s">
@@ -25909,7 +26001,7 @@
       <c r="B753" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C753" s="2" t="s">
+      <c r="C753" s="25" t="s">
         <v>232</v>
       </c>
       <c r="D753" s="1" t="s">
@@ -25941,7 +26033,7 @@
       <c r="B754" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C754" s="1" t="s">
+      <c r="C754" s="24" t="s">
         <v>232</v>
       </c>
       <c r="D754" s="1" t="s">
@@ -25973,7 +26065,7 @@
       <c r="B755" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C755" s="2" t="s">
+      <c r="C755" s="25" t="s">
         <v>232</v>
       </c>
       <c r="D755" s="1" t="s">
@@ -25996,7 +26088,7 @@
       <c r="B756" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C756" s="1" t="s">
+      <c r="C756" s="24" t="s">
         <v>232</v>
       </c>
       <c r="D756" s="1" t="s">
@@ -26019,7 +26111,7 @@
       <c r="B757" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C757" s="2" t="s">
+      <c r="C757" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D757" s="2" t="s">
@@ -26051,7 +26143,7 @@
       <c r="B758" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C758" s="1" t="s">
+      <c r="C758" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D758" s="1" t="s">
@@ -26083,7 +26175,7 @@
       <c r="B759" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C759" s="2" t="s">
+      <c r="C759" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D759" s="2" t="s">
@@ -26107,7 +26199,7 @@
       <c r="B760" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C760" s="2" t="s">
+      <c r="C760" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D760" s="2" t="s">
@@ -26139,7 +26231,7 @@
       <c r="B761" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C761" s="1" t="s">
+      <c r="C761" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D761" s="1" t="s">
@@ -26171,7 +26263,7 @@
       <c r="B762" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C762" s="2" t="s">
+      <c r="C762" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D762" s="2" t="s">
@@ -26203,7 +26295,7 @@
       <c r="B763" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C763" s="2" t="s">
+      <c r="C763" s="25" t="s">
         <v>94</v>
       </c>
       <c r="D763" s="2" t="s">
@@ -26227,7 +26319,7 @@
       <c r="B764" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C764" s="1" t="s">
+      <c r="C764" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D764" s="1" t="s">
@@ -26259,7 +26351,7 @@
       <c r="B765" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C765" s="2" t="s">
+      <c r="C765" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D765" s="2" t="s">
@@ -26291,7 +26383,7 @@
       <c r="B766" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C766" s="2" t="s">
+      <c r="C766" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D766" s="2" t="s">
@@ -26323,7 +26415,7 @@
       <c r="B767" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C767" s="2" t="s">
+      <c r="C767" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D767" s="2" t="s">
@@ -26355,7 +26447,7 @@
       <c r="B768" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C768" s="2" t="s">
+      <c r="C768" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D768" s="2" t="s">
@@ -26387,7 +26479,7 @@
       <c r="B769" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C769" s="2" t="s">
+      <c r="C769" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D769" s="2" t="s">
@@ -26419,7 +26511,7 @@
       <c r="B770" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C770" s="2" t="s">
+      <c r="C770" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D770" s="2" t="s">
@@ -26451,7 +26543,7 @@
       <c r="B771" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C771" s="2" t="s">
+      <c r="C771" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D771" s="2" t="s">
@@ -26483,7 +26575,7 @@
       <c r="B772" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C772" s="2" t="s">
+      <c r="C772" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D772" s="2" t="s">
@@ -26515,7 +26607,7 @@
       <c r="B773" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C773" s="2" t="s">
+      <c r="C773" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D773" s="2" t="s">
@@ -26547,7 +26639,7 @@
       <c r="B774" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C774" s="2" t="s">
+      <c r="C774" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D774" s="2" t="s">
@@ -26579,7 +26671,7 @@
       <c r="B775" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C775" s="2" t="s">
+      <c r="C775" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D775" s="2" t="s">
@@ -26611,7 +26703,7 @@
       <c r="B776" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C776" s="2" t="s">
+      <c r="C776" s="25" t="s">
         <v>97</v>
       </c>
       <c r="D776" s="2" t="s">
@@ -26643,7 +26735,7 @@
       <c r="B777" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C777" s="1" t="s">
+      <c r="C777" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D777" s="1" t="s">
@@ -26675,7 +26767,7 @@
       <c r="B778" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C778" s="1" t="s">
+      <c r="C778" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D778" s="1" t="s">
@@ -26707,7 +26799,7 @@
       <c r="B779" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C779" s="1" t="s">
+      <c r="C779" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D779" s="1" t="s">
@@ -26739,7 +26831,7 @@
       <c r="B780" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C780" s="1" t="s">
+      <c r="C780" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D780" s="1" t="s">
@@ -26771,7 +26863,7 @@
       <c r="B781" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C781" s="1" t="s">
+      <c r="C781" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D781" s="1" t="s">
@@ -26803,7 +26895,7 @@
       <c r="B782" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C782" s="1" t="s">
+      <c r="C782" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D782" s="1" t="s">
@@ -26835,7 +26927,7 @@
       <c r="B783" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C783" s="1" t="s">
+      <c r="C783" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D783" s="1" t="s">
@@ -26867,7 +26959,7 @@
       <c r="B784" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C784" s="1" t="s">
+      <c r="C784" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D784" s="1" t="s">
@@ -26899,7 +26991,7 @@
       <c r="B785" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C785" s="1" t="s">
+      <c r="C785" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D785" s="1" t="s">
@@ -26931,7 +27023,7 @@
       <c r="B786" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C786" s="1" t="s">
+      <c r="C786" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D786" s="1" t="s">
@@ -26963,7 +27055,7 @@
       <c r="B787" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C787" s="1" t="s">
+      <c r="C787" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D787" s="1" t="s">
@@ -26995,7 +27087,7 @@
       <c r="B788" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C788" s="1" t="s">
+      <c r="C788" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D788" s="1" t="s">
@@ -27027,7 +27119,7 @@
       <c r="B789" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C789" s="1" t="s">
+      <c r="C789" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D789" s="1" t="s">
@@ -27059,7 +27151,7 @@
       <c r="B790" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C790" s="1" t="s">
+      <c r="C790" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D790" s="1" t="s">
@@ -27091,7 +27183,7 @@
       <c r="B791" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C791" s="1" t="s">
+      <c r="C791" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D791" s="1" t="s">
@@ -27123,7 +27215,7 @@
       <c r="B792" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C792" s="1" t="s">
+      <c r="C792" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D792" s="1" t="s">
@@ -27155,7 +27247,7 @@
       <c r="B793" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C793" s="1" t="s">
+      <c r="C793" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D793" s="1" t="s">
@@ -27187,7 +27279,7 @@
       <c r="B794" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C794" s="1" t="s">
+      <c r="C794" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D794" s="1" t="s">
@@ -27219,7 +27311,7 @@
       <c r="B795" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C795" s="1" t="s">
+      <c r="C795" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D795" s="1" t="s">
@@ -27251,7 +27343,7 @@
       <c r="B796" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C796" s="1" t="s">
+      <c r="C796" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D796" s="1" t="s">
@@ -27283,7 +27375,7 @@
       <c r="B797" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C797" s="1" t="s">
+      <c r="C797" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D797" s="1" t="s">
@@ -27315,7 +27407,7 @@
       <c r="B798" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C798" s="1" t="s">
+      <c r="C798" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D798" s="1" t="s">
@@ -27347,7 +27439,7 @@
       <c r="B799" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C799" s="1" t="s">
+      <c r="C799" s="24" t="s">
         <v>103</v>
       </c>
       <c r="D799" s="1" t="s">
@@ -27370,7 +27462,7 @@
       <c r="B800" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C800" s="2" t="s">
+      <c r="C800" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D800" s="2" t="s">
@@ -27402,7 +27494,7 @@
       <c r="B801" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C801" s="2" t="s">
+      <c r="C801" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D801" s="2" t="s">
@@ -27434,7 +27526,7 @@
       <c r="B802" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C802" s="1" t="s">
+      <c r="C802" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D802" s="1" t="s">
@@ -27466,7 +27558,7 @@
       <c r="B803" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C803" s="2" t="s">
+      <c r="C803" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D803" s="2" t="s">
@@ -27498,7 +27590,7 @@
       <c r="B804" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C804" s="2" t="s">
+      <c r="C804" s="25" t="s">
         <v>105</v>
       </c>
       <c r="D804" s="2" t="s">
@@ -27530,7 +27622,7 @@
       <c r="B805" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C805" s="1" t="s">
+      <c r="C805" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D805" s="1" t="s">
@@ -27562,7 +27654,7 @@
       <c r="B806" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C806" s="2" t="s">
+      <c r="C806" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D806" s="2" t="s">
@@ -27594,7 +27686,7 @@
       <c r="B807" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C807" s="1" t="s">
+      <c r="C807" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D807" s="1" t="s">
@@ -27626,7 +27718,7 @@
       <c r="B808" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C808" s="1" t="s">
+      <c r="C808" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D808" s="1" t="s">
@@ -27658,7 +27750,7 @@
       <c r="B809" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C809" s="2" t="s">
+      <c r="C809" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D809" s="2" t="s">
@@ -27690,7 +27782,7 @@
       <c r="B810" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C810" s="1" t="s">
+      <c r="C810" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D810" s="1" t="s">
@@ -27722,7 +27814,7 @@
       <c r="B811" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C811" s="1" t="s">
+      <c r="C811" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D811" s="1" t="s">
@@ -27754,7 +27846,7 @@
       <c r="B812" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C812" s="2" t="s">
+      <c r="C812" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D812" s="2" t="s">
@@ -27786,7 +27878,7 @@
       <c r="B813" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C813" s="1" t="s">
+      <c r="C813" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D813" s="1" t="s">
@@ -27818,7 +27910,7 @@
       <c r="B814" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C814" s="2" t="s">
+      <c r="C814" s="25" t="s">
         <v>27</v>
       </c>
       <c r="D814" s="2" t="s">
@@ -27850,7 +27942,7 @@
       <c r="B815" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C815" s="1" t="s">
+      <c r="C815" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D815" s="1" t="s">
@@ -27882,7 +27974,7 @@
       <c r="B816" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C816" s="2" t="s">
+      <c r="C816" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D816" s="2" t="s">
@@ -27914,7 +28006,7 @@
       <c r="B817" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C817" s="2" t="s">
+      <c r="C817" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D817" s="2" t="s">
@@ -27946,7 +28038,7 @@
       <c r="B818" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C818" s="2" t="s">
+      <c r="C818" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D818" s="2" t="s">
@@ -27978,7 +28070,7 @@
       <c r="B819" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C819" s="2" t="s">
+      <c r="C819" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D819" s="2" t="s">
@@ -28010,7 +28102,7 @@
       <c r="B820" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C820" s="1" t="s">
+      <c r="C820" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D820" s="1" t="s">
@@ -28042,7 +28134,7 @@
       <c r="B821" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C821" s="1" t="s">
+      <c r="C821" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D821" s="1" t="s">
@@ -28074,7 +28166,7 @@
       <c r="B822" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C822" s="1" t="s">
+      <c r="C822" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D822" s="1" t="s">
@@ -28106,7 +28198,7 @@
       <c r="B823" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C823" s="1" t="s">
+      <c r="C823" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D823" s="1" t="s">
@@ -28138,7 +28230,7 @@
       <c r="B824" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C824" s="2" t="s">
+      <c r="C824" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D824" s="2" t="s">
@@ -28170,7 +28262,7 @@
       <c r="B825" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C825" s="2" t="s">
+      <c r="C825" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D825" s="2" t="s">
@@ -28202,7 +28294,7 @@
       <c r="B826" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C826" s="2" t="s">
+      <c r="C826" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D826" s="2" t="s">
@@ -28234,7 +28326,7 @@
       <c r="B827" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C827" s="2" t="s">
+      <c r="C827" s="25" t="s">
         <v>233</v>
       </c>
       <c r="D827" s="2" t="s">
@@ -28266,7 +28358,7 @@
       <c r="B828" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C828" s="1" t="s">
+      <c r="C828" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D828" s="1" t="s">
@@ -28298,7 +28390,7 @@
       <c r="B829" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C829" s="1" t="s">
+      <c r="C829" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D829" s="1" t="s">
@@ -28330,7 +28422,7 @@
       <c r="B830" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C830" s="1" t="s">
+      <c r="C830" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D830" s="1" t="s">
@@ -28362,7 +28454,7 @@
       <c r="B831" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C831" s="1" t="s">
+      <c r="C831" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D831" s="1" t="s">
@@ -28394,7 +28486,7 @@
       <c r="B832" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C832" s="2" t="s">
+      <c r="C832" s="25" t="s">
         <v>234</v>
       </c>
       <c r="D832" s="2" t="s">
@@ -28426,7 +28518,7 @@
       <c r="B833" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C833" s="1" t="s">
+      <c r="C833" s="24" t="s">
         <v>234</v>
       </c>
       <c r="D833" s="1" t="s">
@@ -28458,7 +28550,7 @@
       <c r="B834" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C834" s="2" t="s">
+      <c r="C834" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D834" s="2" t="s">
@@ -28490,7 +28582,7 @@
       <c r="B835" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C835" s="2" t="s">
+      <c r="C835" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D835" s="2" t="s">
@@ -28522,7 +28614,7 @@
       <c r="B836" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C836" s="2" t="s">
+      <c r="C836" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D836" s="2" t="s">
@@ -28554,7 +28646,7 @@
       <c r="B837" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C837" s="2" t="s">
+      <c r="C837" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D837" s="2" t="s">
@@ -28586,7 +28678,7 @@
       <c r="B838" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C838" s="2" t="s">
+      <c r="C838" s="25" t="s">
         <v>111</v>
       </c>
       <c r="D838" s="2" t="s">
@@ -28618,7 +28710,7 @@
       <c r="B839" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C839" s="2" t="s">
+      <c r="C839" s="25" t="s">
         <v>111</v>
       </c>
       <c r="D839" s="2" t="s">
@@ -32530,7 +32622,7 @@
         <v>374</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>375</v>
